--- a/Code/Results/Cases/Case_3_134/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_134/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.25722280894085</v>
+        <v>12.12601564876786</v>
       </c>
       <c r="C2">
-        <v>6.434405724794874</v>
+        <v>8.540681091977376</v>
       </c>
       <c r="D2">
-        <v>5.030388387576961</v>
+        <v>5.399918773833328</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.80733505106432</v>
+        <v>26.04993215201298</v>
       </c>
       <c r="G2">
-        <v>2.092553045179861</v>
+        <v>3.645707402750573</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.03837224321742</v>
+        <v>23.72435141585325</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.39500608293032</v>
+        <v>9.095403787623821</v>
       </c>
       <c r="L2">
-        <v>8.095648350413381</v>
+        <v>10.71897347368574</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.31439860873139</v>
+        <v>19.02750658731475</v>
       </c>
       <c r="O2">
-        <v>15.27961772973087</v>
+        <v>23.37924058404403</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.2960883095123</v>
+        <v>11.8582662520356</v>
       </c>
       <c r="C3">
-        <v>6.402184271398714</v>
+        <v>8.534180673310509</v>
       </c>
       <c r="D3">
-        <v>4.873022601956191</v>
+        <v>5.344569355677074</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.47843673288658</v>
+        <v>26.07590100322824</v>
       </c>
       <c r="G3">
-        <v>2.09691162970733</v>
+        <v>3.647387742249168</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.10420979862882</v>
+        <v>23.80208550683385</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.74007391019315</v>
+        <v>8.911379957029517</v>
       </c>
       <c r="L3">
-        <v>7.808979205983486</v>
+        <v>10.69168628176257</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.50574937551498</v>
+        <v>19.08533027732752</v>
       </c>
       <c r="O3">
-        <v>15.239442424284</v>
+        <v>23.44208854180393</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.67080452800372</v>
+        <v>11.6929730747475</v>
       </c>
       <c r="C4">
-        <v>6.382707615119595</v>
+        <v>8.530342464852543</v>
       </c>
       <c r="D4">
-        <v>4.773143892691276</v>
+        <v>5.309725783333639</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.28951039406422</v>
+        <v>26.09817365588555</v>
       </c>
       <c r="G4">
-        <v>2.099675758631127</v>
+        <v>3.648474970010732</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.15556303188109</v>
+        <v>23.85406706283348</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.3166900271947</v>
+        <v>8.797866635037629</v>
       </c>
       <c r="L4">
-        <v>7.632192300736635</v>
+        <v>10.67705472575774</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.62593919545499</v>
+        <v>19.12249965832604</v>
       </c>
       <c r="O4">
-        <v>15.22667841318001</v>
+        <v>23.48528305634772</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.40711035283511</v>
+        <v>11.62548878110133</v>
       </c>
       <c r="C5">
-        <v>6.374849991520291</v>
+        <v>8.52881741483127</v>
       </c>
       <c r="D5">
-        <v>4.731657934978005</v>
+        <v>5.295316896404458</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.21581400054981</v>
+        <v>26.1088396274013</v>
       </c>
       <c r="G5">
-        <v>2.100824694550473</v>
+        <v>3.648932020779797</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.17913577994073</v>
+        <v>23.87631837641757</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.13886068989068</v>
+        <v>8.751541372943255</v>
       </c>
       <c r="L5">
-        <v>7.560064849238338</v>
+        <v>10.67163061956656</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.67561539273087</v>
+        <v>19.13806648013272</v>
       </c>
       <c r="O5">
-        <v>15.22437531792304</v>
+        <v>23.50404159647803</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.36278602536165</v>
+        <v>11.6142784051405</v>
       </c>
       <c r="C6">
-        <v>6.373550084775562</v>
+        <v>8.528566556299483</v>
       </c>
       <c r="D6">
-        <v>4.724722899065613</v>
+        <v>5.2929118180089</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.20377596156745</v>
+        <v>26.11070666062827</v>
       </c>
       <c r="G6">
-        <v>2.101016847220532</v>
+        <v>3.649008760327657</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.18320687633494</v>
+        <v>23.88007769195212</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.10901403275495</v>
+        <v>8.743846902077793</v>
       </c>
       <c r="L6">
-        <v>7.54808631351185</v>
+        <v>10.67076259031099</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.68390677868562</v>
+        <v>19.14067674169886</v>
       </c>
       <c r="O6">
-        <v>15.22416511169302</v>
+        <v>23.50722623114856</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.66728429965223</v>
+        <v>11.69206333519729</v>
       </c>
       <c r="C7">
-        <v>6.382601320878367</v>
+        <v>8.530321738641454</v>
       </c>
       <c r="D7">
-        <v>4.772587527783196</v>
+        <v>5.309532301574213</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.28850315047305</v>
+        <v>26.09831106678681</v>
       </c>
       <c r="G7">
-        <v>2.099691161814243</v>
+        <v>3.648481077228334</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.15587036250337</v>
+        <v>23.85436282712811</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.31431313194788</v>
+        <v>8.797242065090421</v>
       </c>
       <c r="L7">
-        <v>7.631219760961121</v>
+        <v>10.67697938887554</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.6266062957572</v>
+        <v>19.12270789576146</v>
       </c>
       <c r="O7">
-        <v>15.22663574510008</v>
+        <v>23.48553136059603</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.93308798388692</v>
+        <v>12.03393946139941</v>
       </c>
       <c r="C8">
-        <v>6.423233115833547</v>
+        <v>8.538408311807119</v>
       </c>
       <c r="D8">
-        <v>4.976823703728888</v>
+        <v>5.381016161668819</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.69124371905561</v>
+        <v>26.05757222708474</v>
       </c>
       <c r="G8">
-        <v>2.094037889846688</v>
+        <v>3.646275292010718</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.05874261834052</v>
+        <v>23.75027097713764</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.17362013804487</v>
+        <v>9.032098306585794</v>
       </c>
       <c r="L8">
-        <v>7.997027307394959</v>
+        <v>10.7091271255143</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.37982774970689</v>
+        <v>19.04709927837525</v>
       </c>
       <c r="O8">
-        <v>15.26323846669492</v>
+        <v>23.39995368033752</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.13871623955543</v>
+        <v>12.69310248870298</v>
       </c>
       <c r="C9">
-        <v>6.505271259279803</v>
+        <v>8.555456690494587</v>
       </c>
       <c r="D9">
-        <v>5.350178520505126</v>
+        <v>5.514121389987786</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.58298123403257</v>
+        <v>26.02792826475925</v>
       </c>
       <c r="G9">
-        <v>2.083629793625485</v>
+        <v>3.642388119125829</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.95966821988173</v>
+        <v>23.57992936482525</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.68875140311961</v>
+        <v>9.48581238160453</v>
       </c>
       <c r="L9">
-        <v>8.703948443250635</v>
+        <v>10.78879106153572</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.91640853973365</v>
+        <v>18.91198864994529</v>
       </c>
       <c r="O9">
-        <v>15.43354558894877</v>
+        <v>23.26875150923599</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.59371410740625</v>
+        <v>13.16525270014776</v>
       </c>
       <c r="C10">
-        <v>6.566886966491041</v>
+        <v>8.568676719844879</v>
       </c>
       <c r="D10">
-        <v>5.606396393844779</v>
+        <v>5.607264718310963</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.2979945679238</v>
+        <v>26.036789572048</v>
       </c>
       <c r="G10">
-        <v>2.076367237792964</v>
+        <v>3.639796732946881</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.94913400972495</v>
+        <v>23.47542805931665</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.69737528789054</v>
+        <v>9.811541181438969</v>
       </c>
       <c r="L10">
-        <v>9.211897816323891</v>
+        <v>10.85712536491602</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.58710153910278</v>
+        <v>18.82066354895876</v>
       </c>
       <c r="O10">
-        <v>15.62404208424274</v>
+        <v>23.19477145047492</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.22039431360794</v>
+        <v>13.37639071782557</v>
       </c>
       <c r="C11">
-        <v>6.595191378352588</v>
+        <v>8.574834980802329</v>
       </c>
       <c r="D11">
-        <v>5.718767327989172</v>
+        <v>5.648560278119503</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.63567264661243</v>
+        <v>26.04746069227117</v>
       </c>
       <c r="G11">
-        <v>2.073140001736317</v>
+        <v>3.63867470428185</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.95929498089355</v>
+        <v>23.43238253746979</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.13352301795556</v>
+        <v>9.957395755215819</v>
       </c>
       <c r="L11">
-        <v>9.439629533154491</v>
+        <v>10.89026171468794</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.43940334723649</v>
+        <v>18.78082444691141</v>
       </c>
       <c r="O11">
-        <v>15.72594738010715</v>
+        <v>23.1660001351101</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.45269655318064</v>
+        <v>13.45574113991214</v>
       </c>
       <c r="C12">
-        <v>6.605947702205685</v>
+        <v>8.577187120970374</v>
       </c>
       <c r="D12">
-        <v>5.760699429526435</v>
+        <v>5.664037561111805</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.76527401715702</v>
+        <v>26.05245386218657</v>
       </c>
       <c r="G12">
-        <v>2.071928353226683</v>
+        <v>3.638257946136615</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.96541230586459</v>
+        <v>23.41672927634448</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.29542795698902</v>
+        <v>10.01224129250412</v>
       </c>
       <c r="L12">
-        <v>9.525326994787173</v>
+        <v>10.90309701599411</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.38374953533931</v>
+        <v>18.76598234690071</v>
       </c>
       <c r="O12">
-        <v>15.7668082028512</v>
+        <v>23.15580844982901</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.40288795538426</v>
+        <v>13.43867961874347</v>
       </c>
       <c r="C13">
-        <v>6.603629464468066</v>
+        <v>8.576679659753687</v>
       </c>
       <c r="D13">
-        <v>5.751696460629593</v>
+        <v>5.660711476892804</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.7372859686434</v>
+        <v>26.05133619207724</v>
       </c>
       <c r="G13">
-        <v>2.072188848713089</v>
+        <v>3.638347341502414</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.96399198288348</v>
+        <v>23.42007168709648</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.26070341488839</v>
+        <v>10.00044731415776</v>
       </c>
       <c r="L13">
-        <v>9.50689535739936</v>
+        <v>10.90032005274466</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.39572372944235</v>
+        <v>18.76916801944943</v>
       </c>
       <c r="O13">
-        <v>15.75790585914874</v>
+        <v>23.15797210968729</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.23960600794102</v>
+        <v>13.38293144048634</v>
       </c>
       <c r="C14">
-        <v>6.59607555272422</v>
+        <v>8.575028092742935</v>
       </c>
       <c r="D14">
-        <v>5.722229637414329</v>
+        <v>5.649836851423659</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.6463006702992</v>
+        <v>26.04785241660699</v>
       </c>
       <c r="G14">
-        <v>2.073040112919648</v>
+        <v>3.638640254627215</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.95975208507275</v>
+        <v>23.43108175832922</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.14690820429526</v>
+        <v>9.961915964905542</v>
       </c>
       <c r="L14">
-        <v>9.446691036074148</v>
+        <v>10.89131197010913</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.43481929447563</v>
+        <v>18.77959849244787</v>
       </c>
       <c r="O14">
-        <v>15.72926306427391</v>
+        <v>23.16514755536895</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.13894056050032</v>
+        <v>13.34870330525098</v>
       </c>
       <c r="C15">
-        <v>6.591453478799687</v>
+        <v>8.574019064504265</v>
       </c>
       <c r="D15">
-        <v>5.704099061567239</v>
+        <v>5.643154766608895</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.59079322202418</v>
+        <v>26.04584242368936</v>
       </c>
       <c r="G15">
-        <v>2.073562878385691</v>
+        <v>3.638820729960695</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.95745414598155</v>
+        <v>23.43791005428158</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.07678179320242</v>
+        <v>9.938262570907073</v>
       </c>
       <c r="L15">
-        <v>9.409742276266227</v>
+        <v>10.88583143935383</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.45880162628747</v>
+        <v>18.7860192154919</v>
       </c>
       <c r="O15">
-        <v>15.71201660719928</v>
+        <v>23.16963435993145</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.55205528850381</v>
+        <v>13.15137412027222</v>
       </c>
       <c r="C16">
-        <v>6.565042609416626</v>
+        <v>8.568277115501445</v>
       </c>
       <c r="D16">
-        <v>5.598966840284161</v>
+        <v>5.604543812694817</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.27617159620372</v>
+        <v>26.03622560203955</v>
       </c>
       <c r="G16">
-        <v>2.076579637377671</v>
+        <v>3.639871199910109</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.94878104637545</v>
+        <v>23.47833168440638</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.66841604615313</v>
+        <v>9.801957959336281</v>
       </c>
       <c r="L16">
-        <v>9.196942529359946</v>
+        <v>10.85500045188771</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.59679410086825</v>
+        <v>18.82330134604064</v>
       </c>
       <c r="O16">
-        <v>15.61769600214671</v>
+        <v>23.19675008667114</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.18304157803866</v>
+        <v>13.02932758482916</v>
       </c>
       <c r="C17">
-        <v>6.548909726921713</v>
+        <v>8.564791158216078</v>
       </c>
       <c r="D17">
-        <v>5.533385891193265</v>
+        <v>5.580577554368793</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.08630177834682</v>
+        <v>26.03202509385085</v>
       </c>
       <c r="G17">
-        <v>2.078449528718945</v>
+        <v>3.640530150798622</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.94737489403889</v>
+        <v>23.5042805191297</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.41209060421667</v>
+        <v>9.717706499944036</v>
       </c>
       <c r="L17">
-        <v>9.065496409187009</v>
+        <v>10.83660660472689</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.68196888418699</v>
+        <v>18.8466086719019</v>
       </c>
       <c r="O17">
-        <v>15.5637962077341</v>
+        <v>23.21463621502047</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.96747758829906</v>
+        <v>12.95879087735382</v>
       </c>
       <c r="C18">
-        <v>6.539656493530649</v>
+        <v>8.562799757412959</v>
       </c>
       <c r="D18">
-        <v>5.495272602148233</v>
+        <v>5.566691868874154</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.97826559192228</v>
+        <v>26.03023427358283</v>
       </c>
       <c r="G18">
-        <v>2.079532280794658</v>
+        <v>3.640914511062959</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.94796636504928</v>
+        <v>23.51962840776685</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.26252337346248</v>
+        <v>9.66903175944249</v>
       </c>
       <c r="L18">
-        <v>8.989580912514564</v>
+        <v>10.82622045821197</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.7311589922481</v>
+        <v>18.86017499027146</v>
       </c>
       <c r="O18">
-        <v>15.53422520671892</v>
+        <v>23.22538334873938</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.89391997614816</v>
+        <v>12.93485266614429</v>
       </c>
       <c r="C19">
-        <v>6.536528017881314</v>
+        <v>8.562127863161773</v>
       </c>
       <c r="D19">
-        <v>5.482301236202147</v>
+        <v>5.561973258129349</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.94188936250445</v>
+        <v>26.02973537687884</v>
       </c>
       <c r="G19">
-        <v>2.079900142372874</v>
+        <v>3.641045568754274</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.94840349700036</v>
+        <v>23.52489752202449</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.21151558675227</v>
+        <v>9.652515969647416</v>
       </c>
       <c r="L19">
-        <v>8.963825770907235</v>
+        <v>10.82273734742274</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.74784901826986</v>
+        <v>18.86479592260548</v>
       </c>
       <c r="O19">
-        <v>15.52445622481993</v>
+        <v>23.22910102250259</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.22266662995514</v>
+        <v>13.04235529605976</v>
       </c>
       <c r="C20">
-        <v>6.550624423154118</v>
+        <v>8.565160838213865</v>
       </c>
       <c r="D20">
-        <v>5.540407898677645</v>
+        <v>5.583139291331871</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.10639285859803</v>
+        <v>26.03240755529083</v>
       </c>
       <c r="G20">
-        <v>2.078249730304782</v>
+        <v>3.640459451017587</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.94737879818568</v>
+        <v>23.50147445447436</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.4395978849541</v>
+        <v>9.726697910009696</v>
       </c>
       <c r="L20">
-        <v>9.079521741894615</v>
+        <v>10.83854468758364</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.67288138850126</v>
+        <v>18.84411095776933</v>
       </c>
       <c r="O20">
-        <v>15.5693852711246</v>
+        <v>23.2126846392118</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.28770134641849</v>
+        <v>13.39932299620256</v>
       </c>
       <c r="C21">
-        <v>6.598293297781463</v>
+        <v>8.575512656407847</v>
       </c>
       <c r="D21">
-        <v>5.730901729374346</v>
+        <v>5.653035391978122</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.67297874133351</v>
+        <v>26.04884986682405</v>
       </c>
       <c r="G21">
-        <v>2.072789797471549</v>
+        <v>3.638553998610799</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.96093489553888</v>
+        <v>23.42783026159464</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.18042086482923</v>
+        <v>9.973244446825086</v>
       </c>
       <c r="L21">
-        <v>9.464389575942525</v>
+        <v>10.89395012823011</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.42332869950782</v>
+        <v>18.77652819346456</v>
       </c>
       <c r="O21">
-        <v>15.73761389292205</v>
+        <v>23.16302085394487</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.95459927543163</v>
+        <v>13.62907487306238</v>
       </c>
       <c r="C22">
-        <v>6.62966895211662</v>
+        <v>8.582395268110298</v>
       </c>
       <c r="D22">
-        <v>5.851777822275277</v>
+        <v>5.697778778299559</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.05333475566428</v>
+        <v>26.06514452233622</v>
       </c>
       <c r="G22">
-        <v>2.069281954498384</v>
+        <v>3.637356043978902</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.98307921380126</v>
+        <v>23.38347205920883</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.64562772059004</v>
+        <v>10.1321024127076</v>
       </c>
       <c r="L22">
-        <v>9.712757019155642</v>
+        <v>10.93183148208388</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.26182858521557</v>
+        <v>18.73378127081249</v>
       </c>
       <c r="O22">
-        <v>15.8608345238504</v>
+        <v>23.13466305370548</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.60131338759949</v>
+        <v>13.50680112308224</v>
       </c>
       <c r="C23">
-        <v>6.612903366857688</v>
+        <v>8.57871138178694</v>
       </c>
       <c r="D23">
-        <v>5.7876009579145</v>
+        <v>5.673986046956185</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.84942904635903</v>
+        <v>26.05594112135021</v>
       </c>
       <c r="G23">
-        <v>2.071148814124644</v>
+        <v>3.637991093428369</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.97000524998032</v>
+        <v>23.40680132391749</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.39906947661314</v>
+        <v>10.04754157445672</v>
       </c>
       <c r="L23">
-        <v>9.580505503200792</v>
+        <v>10.91146324266229</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.34788726322184</v>
+        <v>18.75646632432394</v>
       </c>
       <c r="O23">
-        <v>15.79382990762618</v>
+        <v>23.14942258378963</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.20476277911699</v>
+        <v>13.03646661587326</v>
       </c>
       <c r="C24">
-        <v>6.54984914104365</v>
+        <v>8.56499366621328</v>
       </c>
       <c r="D24">
-        <v>5.537234524480539</v>
+        <v>5.581981463405107</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.0973061806558</v>
+        <v>26.03223270023759</v>
       </c>
       <c r="G24">
-        <v>2.07834003505847</v>
+        <v>3.640491397188952</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.94737268182103</v>
+        <v>23.50274173833725</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.4271687035022</v>
+        <v>9.722633629090973</v>
       </c>
       <c r="L24">
-        <v>9.073181960085318</v>
+        <v>10.83766789191184</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.67698915186902</v>
+        <v>18.84523965520501</v>
       </c>
       <c r="O24">
-        <v>15.5668540488658</v>
+        <v>23.21356550089725</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.57132609866609</v>
+        <v>12.51654930215889</v>
       </c>
       <c r="C25">
-        <v>6.482835462315981</v>
+        <v>8.55072039229595</v>
       </c>
       <c r="D25">
-        <v>5.252253436502209</v>
+        <v>5.478905555048015</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.33103887904192</v>
+        <v>26.03056461148693</v>
       </c>
       <c r="G25">
-        <v>2.086375791361102</v>
+        <v>3.643393054714499</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.97601782200211</v>
+        <v>23.62238896703289</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.29719910118335</v>
+        <v>9.364168968158586</v>
       </c>
       <c r="L25">
-        <v>8.514385619343145</v>
+        <v>10.76549226868907</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.03971367720556</v>
+        <v>18.94713940700867</v>
       </c>
       <c r="O25">
-        <v>15.37636132165819</v>
+        <v>23.30031514354943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_134/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_134/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.12601564876786</v>
+        <v>14.25722280894083</v>
       </c>
       <c r="C2">
-        <v>8.540681091977376</v>
+        <v>6.434405724795123</v>
       </c>
       <c r="D2">
-        <v>5.399918773833328</v>
+        <v>5.030388387577054</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.04993215201298</v>
+        <v>18.80733505106435</v>
       </c>
       <c r="G2">
-        <v>3.645707402750573</v>
+        <v>2.092553045179729</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.72435141585325</v>
+        <v>15.03837224321753</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.095403787623821</v>
+        <v>11.39500608293032</v>
       </c>
       <c r="L2">
-        <v>10.71897347368574</v>
+        <v>8.095648350413367</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.02750658731475</v>
+        <v>12.31439860873142</v>
       </c>
       <c r="O2">
-        <v>23.37924058404403</v>
+        <v>15.27961772973094</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.8582662520356</v>
+        <v>13.29608830951227</v>
       </c>
       <c r="C3">
-        <v>8.534180673310509</v>
+        <v>6.402184271398714</v>
       </c>
       <c r="D3">
-        <v>5.344569355677074</v>
+        <v>4.87302260195615</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.07590100322824</v>
+        <v>18.47843673288653</v>
       </c>
       <c r="G3">
-        <v>3.647387742249168</v>
+        <v>2.096911629707197</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.80208550683385</v>
+        <v>15.10420979862872</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.911379957029517</v>
+        <v>10.74007391019312</v>
       </c>
       <c r="L3">
-        <v>10.69168628176257</v>
+        <v>7.808979205983495</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.08533027732752</v>
+        <v>12.50574937551491</v>
       </c>
       <c r="O3">
-        <v>23.44208854180393</v>
+        <v>15.23944242428396</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.6929730747475</v>
+        <v>12.6708045280037</v>
       </c>
       <c r="C4">
-        <v>8.530342464852543</v>
+        <v>6.382707615120122</v>
       </c>
       <c r="D4">
-        <v>5.309725783333639</v>
+        <v>4.773143892691203</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.09817365588555</v>
+        <v>18.28951039406425</v>
       </c>
       <c r="G4">
-        <v>3.648474970010732</v>
+        <v>2.099675758631396</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.85406706283348</v>
+        <v>15.1555630318812</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.797866635037629</v>
+        <v>10.31669002719474</v>
       </c>
       <c r="L4">
-        <v>10.67705472575774</v>
+        <v>7.632192300736637</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.12249965832604</v>
+        <v>12.62593919545503</v>
       </c>
       <c r="O4">
-        <v>23.48528305634772</v>
+        <v>15.22667841318006</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.62548878110133</v>
+        <v>12.40711035283516</v>
       </c>
       <c r="C5">
-        <v>8.52881741483127</v>
+        <v>6.374849991520412</v>
       </c>
       <c r="D5">
-        <v>5.295316896404458</v>
+        <v>4.731657934977886</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.1088396274013</v>
+        <v>18.21581400054982</v>
       </c>
       <c r="G5">
-        <v>3.648932020779797</v>
+        <v>2.100824694551143</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.87631837641757</v>
+        <v>15.17913577994074</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.751541372943255</v>
+        <v>10.13886068989075</v>
       </c>
       <c r="L5">
-        <v>10.67163061956656</v>
+        <v>7.560064849238348</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.13806648013272</v>
+        <v>12.6756153927309</v>
       </c>
       <c r="O5">
-        <v>23.50404159647803</v>
+        <v>15.22437531792302</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.6142784051405</v>
+        <v>12.36278602536168</v>
       </c>
       <c r="C6">
-        <v>8.528566556299483</v>
+        <v>6.373550084775559</v>
       </c>
       <c r="D6">
-        <v>5.2929118180089</v>
+        <v>4.724722899065602</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.11070666062827</v>
+        <v>18.2037759615674</v>
       </c>
       <c r="G6">
-        <v>3.649008760327657</v>
+        <v>2.101016847220531</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.88007769195212</v>
+        <v>15.18320687633492</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.743846902077793</v>
+        <v>10.10901403275498</v>
       </c>
       <c r="L6">
-        <v>10.67076259031099</v>
+        <v>7.54808631351189</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.14067674169886</v>
+        <v>12.68390677868562</v>
       </c>
       <c r="O6">
-        <v>23.50722623114856</v>
+        <v>15.22416511169297</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.69206333519729</v>
+        <v>12.66728429965228</v>
       </c>
       <c r="C7">
-        <v>8.530321738641454</v>
+        <v>6.382601320878225</v>
       </c>
       <c r="D7">
-        <v>5.309532301574213</v>
+        <v>4.772587527783279</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.09831106678681</v>
+        <v>18.28850315047299</v>
       </c>
       <c r="G7">
-        <v>3.648481077228334</v>
+        <v>2.099691161814244</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.85436282712811</v>
+        <v>15.15587036250334</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.797242065090421</v>
+        <v>10.31431313194793</v>
       </c>
       <c r="L7">
-        <v>10.67697938887554</v>
+        <v>7.631219760961116</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.12270789576146</v>
+        <v>12.6266062957572</v>
       </c>
       <c r="O7">
-        <v>23.48553136059603</v>
+        <v>15.22663574510005</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.03393946139941</v>
+        <v>13.93308798388692</v>
       </c>
       <c r="C8">
-        <v>8.538408311807119</v>
+        <v>6.423233115833542</v>
       </c>
       <c r="D8">
-        <v>5.381016161668819</v>
+        <v>4.97682370372901</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.05757222708474</v>
+        <v>18.69124371905555</v>
       </c>
       <c r="G8">
-        <v>3.646275292010718</v>
+        <v>2.094037889846688</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.75027097713764</v>
+        <v>15.05874261834051</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.032098306585794</v>
+        <v>11.17362013804486</v>
       </c>
       <c r="L8">
-        <v>10.7091271255143</v>
+        <v>7.997027307394953</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.04709927837525</v>
+        <v>12.37982774970689</v>
       </c>
       <c r="O8">
-        <v>23.39995368033752</v>
+        <v>15.26323846669491</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.69310248870298</v>
+        <v>16.13871623955539</v>
       </c>
       <c r="C9">
-        <v>8.555456690494587</v>
+        <v>6.5052712592799</v>
       </c>
       <c r="D9">
-        <v>5.514121389987786</v>
+        <v>5.350178520505115</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.02792826475925</v>
+        <v>19.58298123403273</v>
       </c>
       <c r="G9">
-        <v>3.642388119125829</v>
+        <v>2.083629793625217</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.57992936482525</v>
+        <v>14.95966821988184</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.48581238160453</v>
+        <v>12.68875140311955</v>
       </c>
       <c r="L9">
-        <v>10.78879106153572</v>
+        <v>8.703948443250583</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.91198864994529</v>
+        <v>11.91640853973369</v>
       </c>
       <c r="O9">
-        <v>23.26875150923599</v>
+        <v>15.43354558894893</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.16525270014776</v>
+        <v>17.59371410740626</v>
       </c>
       <c r="C10">
-        <v>8.568676719844879</v>
+        <v>6.566886966491035</v>
       </c>
       <c r="D10">
-        <v>5.607264718310963</v>
+        <v>5.606396393844763</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.036789572048</v>
+        <v>20.29799456792385</v>
       </c>
       <c r="G10">
-        <v>3.639796732946881</v>
+        <v>2.07636723779283</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.47542805931665</v>
+        <v>14.94913400972499</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.811541181438969</v>
+        <v>13.69737528789054</v>
       </c>
       <c r="L10">
-        <v>10.85712536491602</v>
+        <v>9.211897816323891</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.82066354895876</v>
+        <v>11.58710153910285</v>
       </c>
       <c r="O10">
-        <v>23.19477145047492</v>
+        <v>15.62404208424277</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.37639071782557</v>
+        <v>18.22039431360799</v>
       </c>
       <c r="C11">
-        <v>8.574834980802329</v>
+        <v>6.595191378352578</v>
       </c>
       <c r="D11">
-        <v>5.648560278119503</v>
+        <v>5.718767327989226</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.04746069227117</v>
+        <v>20.63567264661241</v>
       </c>
       <c r="G11">
-        <v>3.63867470428185</v>
+        <v>2.073140001736183</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.43238253746979</v>
+        <v>14.95929498089352</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.957395755215819</v>
+        <v>14.1335230179556</v>
       </c>
       <c r="L11">
-        <v>10.89026171468794</v>
+        <v>9.439629533154479</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.78082444691141</v>
+        <v>11.43940334723649</v>
       </c>
       <c r="O11">
-        <v>23.1660001351101</v>
+        <v>15.72594738010713</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.45574113991214</v>
+        <v>18.45269655318068</v>
       </c>
       <c r="C12">
-        <v>8.577187120970374</v>
+        <v>6.605947702205555</v>
       </c>
       <c r="D12">
-        <v>5.664037561111805</v>
+        <v>5.760699429526534</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.05245386218657</v>
+        <v>20.76527401715705</v>
       </c>
       <c r="G12">
-        <v>3.638257946136615</v>
+        <v>2.07192835322655</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.41672927634448</v>
+        <v>14.96541230586462</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.01224129250412</v>
+        <v>14.29542795698898</v>
       </c>
       <c r="L12">
-        <v>10.90309701599411</v>
+        <v>9.525326994787173</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.76598234690071</v>
+        <v>11.38374953533935</v>
       </c>
       <c r="O12">
-        <v>23.15580844982901</v>
+        <v>15.76680820285126</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.43867961874347</v>
+        <v>18.40288795538426</v>
       </c>
       <c r="C13">
-        <v>8.576679659753687</v>
+        <v>6.603629464468463</v>
       </c>
       <c r="D13">
-        <v>5.660711476892804</v>
+        <v>5.751696460629422</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.05133619207724</v>
+        <v>20.73728596864343</v>
       </c>
       <c r="G13">
-        <v>3.638347341502414</v>
+        <v>2.072188848713223</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.42007168709648</v>
+        <v>14.96399198288352</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.00044731415776</v>
+        <v>14.2607034148885</v>
       </c>
       <c r="L13">
-        <v>10.90032005274466</v>
+        <v>9.506895357399355</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.76916801944943</v>
+        <v>11.39572372944241</v>
       </c>
       <c r="O13">
-        <v>23.15797210968729</v>
+        <v>15.75790585914871</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.38293144048634</v>
+        <v>18.23960600794102</v>
       </c>
       <c r="C14">
-        <v>8.575028092742935</v>
+        <v>6.596075552724214</v>
       </c>
       <c r="D14">
-        <v>5.649836851423659</v>
+        <v>5.722229637414323</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.04785241660699</v>
+        <v>20.64630067029924</v>
       </c>
       <c r="G14">
-        <v>3.638640254627215</v>
+        <v>2.073040112919648</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.43108175832922</v>
+        <v>14.95975208507278</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.961915964905542</v>
+        <v>14.14690820429526</v>
       </c>
       <c r="L14">
-        <v>10.89131197010913</v>
+        <v>9.446691036074139</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.77959849244787</v>
+        <v>11.43481929447563</v>
       </c>
       <c r="O14">
-        <v>23.16514755536895</v>
+        <v>15.72926306427395</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.34870330525098</v>
+        <v>18.13894056050032</v>
       </c>
       <c r="C15">
-        <v>8.574019064504265</v>
+        <v>6.591453478799803</v>
       </c>
       <c r="D15">
-        <v>5.643154766608895</v>
+        <v>5.704099061567376</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.04584242368936</v>
+        <v>20.59079322202414</v>
       </c>
       <c r="G15">
-        <v>3.638820729960695</v>
+        <v>2.073562878385825</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.43791005428158</v>
+        <v>14.95745414598152</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.938262570907073</v>
+        <v>14.07678179320244</v>
       </c>
       <c r="L15">
-        <v>10.88583143935383</v>
+        <v>9.409742276266227</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.7860192154919</v>
+        <v>11.45880162628743</v>
       </c>
       <c r="O15">
-        <v>23.16963435993145</v>
+        <v>15.71201660719927</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.15137412027222</v>
+        <v>17.55205528850383</v>
       </c>
       <c r="C16">
-        <v>8.568277115501445</v>
+        <v>6.565042609416613</v>
       </c>
       <c r="D16">
-        <v>5.604543812694817</v>
+        <v>5.598966840284143</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.03622560203955</v>
+        <v>20.27617159620376</v>
       </c>
       <c r="G16">
-        <v>3.639871199910109</v>
+        <v>2.076579637377671</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.47833168440638</v>
+        <v>14.94878104637549</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.801957959336281</v>
+        <v>13.66841604615314</v>
       </c>
       <c r="L16">
-        <v>10.85500045188771</v>
+        <v>9.196942529359942</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.82330134604064</v>
+        <v>11.59679410086828</v>
       </c>
       <c r="O16">
-        <v>23.19675008667114</v>
+        <v>15.61769600214677</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.02932758482916</v>
+        <v>17.18304157803876</v>
       </c>
       <c r="C17">
-        <v>8.564791158216078</v>
+        <v>6.548909726921448</v>
       </c>
       <c r="D17">
-        <v>5.580577554368793</v>
+        <v>5.533385891193205</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.03202509385085</v>
+        <v>20.08630177834689</v>
       </c>
       <c r="G17">
-        <v>3.640530150798622</v>
+        <v>2.078449528718677</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.5042805191297</v>
+        <v>14.94737489403893</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.717706499944036</v>
+        <v>13.41209060421669</v>
       </c>
       <c r="L17">
-        <v>10.83660660472689</v>
+        <v>9.065496409187023</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.8466086719019</v>
+        <v>11.68196888418705</v>
       </c>
       <c r="O17">
-        <v>23.21463621502047</v>
+        <v>15.56379620773414</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.95879087735382</v>
+        <v>16.96747758829913</v>
       </c>
       <c r="C18">
-        <v>8.562799757412959</v>
+        <v>6.539656493530761</v>
       </c>
       <c r="D18">
-        <v>5.566691868874154</v>
+        <v>5.495272602148221</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.03023427358283</v>
+        <v>19.97826559192224</v>
       </c>
       <c r="G18">
-        <v>3.640914511062959</v>
+        <v>2.079532280794391</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.51962840776685</v>
+        <v>14.94796636504922</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.66903175944249</v>
+        <v>13.26252337346253</v>
       </c>
       <c r="L18">
-        <v>10.82622045821197</v>
+        <v>8.989580912514578</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.86017499027146</v>
+        <v>11.7311589922481</v>
       </c>
       <c r="O18">
-        <v>23.22538334873938</v>
+        <v>15.53422520671887</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.93485266614429</v>
+        <v>16.89391997614812</v>
       </c>
       <c r="C19">
-        <v>8.562127863161773</v>
+        <v>6.536528017881552</v>
       </c>
       <c r="D19">
-        <v>5.561973258129349</v>
+        <v>5.482301236202282</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.02973537687884</v>
+        <v>19.94188936250454</v>
       </c>
       <c r="G19">
-        <v>3.641045568754274</v>
+        <v>2.079900142373008</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.52489752202449</v>
+        <v>14.94840349700052</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.652515969647416</v>
+        <v>13.21151558675222</v>
       </c>
       <c r="L19">
-        <v>10.82273734742274</v>
+        <v>8.963825770907233</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.86479592260548</v>
+        <v>11.74784901826993</v>
       </c>
       <c r="O19">
-        <v>23.22910102250259</v>
+        <v>15.52445622482005</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.04235529605976</v>
+        <v>17.2226666299552</v>
       </c>
       <c r="C20">
-        <v>8.565160838213865</v>
+        <v>6.550624423154219</v>
       </c>
       <c r="D20">
-        <v>5.583139291331871</v>
+        <v>5.540407898677742</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.03240755529083</v>
+        <v>20.10639285859783</v>
       </c>
       <c r="G20">
-        <v>3.640459451017587</v>
+        <v>2.078249730304917</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.50147445447436</v>
+        <v>14.94737879818548</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.726697910009696</v>
+        <v>13.43959788495417</v>
       </c>
       <c r="L20">
-        <v>10.83854468758364</v>
+        <v>9.07952174189462</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.84411095776933</v>
+        <v>11.67288138850113</v>
       </c>
       <c r="O20">
-        <v>23.2126846392118</v>
+        <v>15.56938527112441</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.39932299620256</v>
+        <v>18.28770134641848</v>
       </c>
       <c r="C21">
-        <v>8.575512656407847</v>
+        <v>6.598293297781592</v>
       </c>
       <c r="D21">
-        <v>5.653035391978122</v>
+        <v>5.730901729374362</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.04884986682405</v>
+        <v>20.67297874133331</v>
       </c>
       <c r="G21">
-        <v>3.638553998610799</v>
+        <v>2.072789797471682</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.42783026159464</v>
+        <v>14.96093489553871</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.973244446825086</v>
+        <v>14.18042086482924</v>
       </c>
       <c r="L21">
-        <v>10.89395012823011</v>
+        <v>9.464389575942571</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.77652819346456</v>
+        <v>11.42332869950765</v>
       </c>
       <c r="O21">
-        <v>23.16302085394487</v>
+        <v>15.73761389292183</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.62907487306238</v>
+        <v>18.95459927543163</v>
       </c>
       <c r="C22">
-        <v>8.582395268110298</v>
+        <v>6.629668952116496</v>
       </c>
       <c r="D22">
-        <v>5.697778778299559</v>
+        <v>5.851777822275417</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.06514452233622</v>
+        <v>21.05333475566427</v>
       </c>
       <c r="G22">
-        <v>3.637356043978902</v>
+        <v>2.069281954498252</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.38347205920883</v>
+        <v>14.98307921380127</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.1321024127076</v>
+        <v>14.64562772059002</v>
       </c>
       <c r="L22">
-        <v>10.93183148208388</v>
+        <v>9.712757019155648</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.73378127081249</v>
+        <v>11.2618285852155</v>
       </c>
       <c r="O22">
-        <v>23.13466305370548</v>
+        <v>15.86083452385043</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.50680112308224</v>
+        <v>18.60131338759951</v>
       </c>
       <c r="C23">
-        <v>8.57871138178694</v>
+        <v>6.612903366857688</v>
       </c>
       <c r="D23">
-        <v>5.673986046956185</v>
+        <v>5.787600957914488</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.05594112135021</v>
+        <v>20.84942904635895</v>
       </c>
       <c r="G23">
-        <v>3.637991093428369</v>
+        <v>2.071148814124512</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.40680132391749</v>
+        <v>14.9700052499802</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.04754157445672</v>
+        <v>14.39906947661316</v>
       </c>
       <c r="L23">
-        <v>10.91146324266229</v>
+        <v>9.580505503200817</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.75646632432394</v>
+        <v>11.34788726322174</v>
       </c>
       <c r="O23">
-        <v>23.14942258378963</v>
+        <v>15.79382990762606</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.03646661587326</v>
+        <v>17.20476277911697</v>
       </c>
       <c r="C24">
-        <v>8.56499366621328</v>
+        <v>6.54984914104365</v>
       </c>
       <c r="D24">
-        <v>5.581981463405107</v>
+        <v>5.53723452448055</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.03223270023759</v>
+        <v>20.0973061806558</v>
       </c>
       <c r="G24">
-        <v>3.640491397188952</v>
+        <v>2.078340035058337</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.50274173833725</v>
+        <v>14.94737268182102</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.722633629090973</v>
+        <v>13.42716870350219</v>
       </c>
       <c r="L24">
-        <v>10.83766789191184</v>
+        <v>9.073181960085298</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.84523965520501</v>
+        <v>11.67698915186902</v>
       </c>
       <c r="O24">
-        <v>23.21356550089725</v>
+        <v>15.5668540488658</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.51654930215889</v>
+        <v>15.57132609866615</v>
       </c>
       <c r="C25">
-        <v>8.55072039229595</v>
+        <v>6.482835462315856</v>
       </c>
       <c r="D25">
-        <v>5.478905555048015</v>
+        <v>5.252253436502322</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.03056461148693</v>
+        <v>19.33103887904179</v>
       </c>
       <c r="G25">
-        <v>3.643393054714499</v>
+        <v>2.086375791361236</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.62238896703289</v>
+        <v>14.97601782200198</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.364168968158586</v>
+        <v>12.29719910118341</v>
       </c>
       <c r="L25">
-        <v>10.76549226868907</v>
+        <v>8.514385619343146</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.94713940700867</v>
+        <v>12.03971367720553</v>
       </c>
       <c r="O25">
-        <v>23.30031514354943</v>
+        <v>15.37636132165808</v>
       </c>
     </row>
   </sheetData>
